--- a/Sheet/IS指令表.xlsx
+++ b/Sheet/IS指令表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4604A62A-4B12-4768-85C0-1BB1D76F64FD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{945DFBEB-51E3-452C-BC97-60AD91A24560}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="109">
   <si>
     <t>指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,6 +448,10 @@
   </si>
   <si>
     <t>pgvkp 15.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：串口通讯波特率为115200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +475,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,6 +524,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -561,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -572,28 +582,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -603,6 +598,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -885,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -927,499 +940,499 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="D14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="D15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="6" t="s">
+      <c r="D16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="5">
         <v>0</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="5">
         <v>1</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="7"/>
+      <c r="G20" s="12"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="D21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="5">
         <v>0</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="5">
         <v>1</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="7"/>
+      <c r="G23" s="12"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10" t="s">
+      <c r="D24" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10" t="s">
+      <c r="D25" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="10"/>
+      <c r="B26" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10" t="s">
+      <c r="D26" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1427,84 +1440,98 @@
       <c r="A27" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12" t="s">
+      <c r="D27" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12" t="s">
+      <c r="D28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="7" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="15" t="s">
         <v>106</v>
       </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
+  <mergeCells count="16">
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G33"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="A18:A23"/>
@@ -1514,6 +1541,11 @@
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
